--- a/biology/Histoire de la zoologie et de la botanique/Claude_Weber_(zoologiste)/Claude_Weber_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Weber_(zoologiste)/Claude_Weber_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Weber, né en 1946, est un ichtyologiste suisse spécialiste des poissons-chats de la famille des Loricariidae. Il travaille au Muséum d'histoire naturelle de Genève de 1970 à 2008.
 </t>
@@ -511,32 +523,34 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Weber a notamment décrit le genre Glyptoperichthys Weber, 1991, ainsi que les espèces suivantes :
-Ancistrus aguaboensis Fisch-Muller, Mazzoni &amp; Weber, 2001[1]
-Ancistrus minutus Fisch-Muller, Mazzoni &amp; Weber, 2001[1]
-Glyptoperichthys joselimaianus Weber, 1991[2]
-Glyptoperichthys parnaibae Weber, 1991[2]
-Glyptoperichthys xinguensis Weber, 1991[2]
-Hypostomus denticulatus Zawadzki, Weber &amp; Pavanelli, 2008[3]
-Hypostomus dlouhyi Weber, 1985[4]
-Hypostomus ericae Hollanda Carvalho &amp; Weber, 2005[5]
-Hypostomus fonchii Weber &amp; Montoya-Burgos, 2002[6]
-Hypostomus heraldoi Zawadzki, Weber &amp; Pavanelli, 2008[3]
-Hypostomus isbrueckeri Reis, Weber &amp; Malabarba, 1990[7]
-Hypostomus latifrons Weber, 1986[8]
-Hypostomus microstomus Weber, 1987[9]
-Hypostomus paucipunctatus Hollanda Carvalho &amp; Weber, 2005[5]
-Hypostomus peckoltoides Zawadzki, Weber &amp; Pavanelli, 2010[10]
-Hypostomus piratatu Weber, 1986[8]
-Hypostomus roseopunctatus Reis, Weber &amp; Malabarba, 1990[7]
-Hypostomus simios Hollanda Carvalho &amp; Weber, 2005[5]
-Hypostomus soniae Hollanda Carvalho &amp; Weber, 2005[5]
-Hypostomus uruguayensis Reis, Weber &amp; Malabarba, 1990[7]
-Hypostomus waiampi Hollanda Carvalho &amp; Weber, 2005[5]
-Liposarcus disjunctivus Weber, 1991[2]
-Pterygoplichthys zuliaensis Weber, 1991[2]
+Ancistrus aguaboensis Fisch-Muller, Mazzoni &amp; Weber, 2001
+Ancistrus minutus Fisch-Muller, Mazzoni &amp; Weber, 2001
+Glyptoperichthys joselimaianus Weber, 1991
+Glyptoperichthys parnaibae Weber, 1991
+Glyptoperichthys xinguensis Weber, 1991
+Hypostomus denticulatus Zawadzki, Weber &amp; Pavanelli, 2008
+Hypostomus dlouhyi Weber, 1985
+Hypostomus ericae Hollanda Carvalho &amp; Weber, 2005
+Hypostomus fonchii Weber &amp; Montoya-Burgos, 2002
+Hypostomus heraldoi Zawadzki, Weber &amp; Pavanelli, 2008
+Hypostomus isbrueckeri Reis, Weber &amp; Malabarba, 1990
+Hypostomus latifrons Weber, 1986
+Hypostomus microstomus Weber, 1987
+Hypostomus paucipunctatus Hollanda Carvalho &amp; Weber, 2005
+Hypostomus peckoltoides Zawadzki, Weber &amp; Pavanelli, 2010
+Hypostomus piratatu Weber, 1986
+Hypostomus roseopunctatus Reis, Weber &amp; Malabarba, 1990
+Hypostomus simios Hollanda Carvalho &amp; Weber, 2005
+Hypostomus soniae Hollanda Carvalho &amp; Weber, 2005
+Hypostomus uruguayensis Reis, Weber &amp; Malabarba, 1990
+Hypostomus waiampi Hollanda Carvalho &amp; Weber, 2005
+Liposarcus disjunctivus Weber, 1991
+Pterygoplichthys zuliaensis Weber, 1991
 Il est également le dédicataire de l'espèce Pterygoplichthys weberi Armbruster &amp; Page, 2006.
 </t>
         </is>
@@ -567,6 +581,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
